--- a/data.xlsx
+++ b/data.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarit\git\myown\myown\Aug2nd2025\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF58EAB-0770-4B52-A298-E80FCE43E05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C68FA6EC-6D9E-49AB-9D2C-FAE72F8616E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -360,35 +356,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
